--- a/input.xlsx
+++ b/input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e1234958\OneDrive - nVent Management Company\Desktop\DEV\Grouping\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e1234958\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9106636-F524-45E0-913B-C00EE8304608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46160E1F-16E6-429E-9C5D-412B440EB59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AF320382-3229-4D6D-AF1C-BDC7FB773E76}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AF320382-3229-4D6D-AF1C-BDC7FB773E76}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -2254,11 +2254,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EEB02DF-D60F-456B-AD3C-B0AB8F3DF675}">
   <dimension ref="A1:F446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="G452" sqref="G452"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
